--- a/Tabella dei Requisiti.xlsx
+++ b/Tabella dei Requisiti.xlsx
@@ -1147,9 +1147,7 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="3">
-        <v>22.0</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1175,10 +1173,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1202,7 +1200,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1229,7 +1227,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1256,9 +1254,8 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
-      <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1368,8 +1365,9 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1394,8 +1392,9 @@
       <c r="X32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="3">
+        <v>30.0</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1914,7 +1913,7 @@
       <c r="X52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -26587,6 +26586,32 @@
       <c r="W1001" s="4"/>
       <c r="X1001" s="4"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Tabella dei Requisiti.xlsx
+++ b/Tabella dei Requisiti.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -96,6 +96,18 @@
   <si>
     <t>L'utente stampa la rubrica su un file di testo (.txt)</t>
   </si>
+  <si>
+    <t>Il sistema restituisce un messaggio di errore quando viene inserito un valore non valido</t>
+  </si>
+  <si>
+    <t>Non funzionale</t>
+  </si>
+  <si>
+    <t>Il sistema deve essere user-friendly</t>
+  </si>
+  <si>
+    <t>Il sistema deve avere una documentazione chiara e completa</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -149,6 +161,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,8 +1190,15 @@
       <c r="A25" s="3">
         <v>22.0</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1202,8 +1224,15 @@
       <c r="A26" s="3">
         <v>23.0</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1229,8 +1258,15 @@
       <c r="A27" s="3">
         <v>24.0</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
